--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_vessel_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_vessel_update.xlsx
@@ -822,7 +822,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>953</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>954</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>955</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
